--- a/Download/ZCEV.xlsx
+++ b/Download/ZCEV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G285"/>
+  <dimension ref="A1:F285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>AREA_PSA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>DT_INIZIO</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -501,11 +496,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -538,11 +528,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -575,11 +560,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -612,11 +592,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -649,11 +624,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -686,11 +656,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -723,11 +688,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -760,11 +720,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -797,11 +752,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -834,11 +784,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -871,11 +816,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -908,11 +848,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -945,11 +880,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -982,11 +912,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1019,11 +944,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1056,11 +976,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1093,11 +1008,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1130,11 +1040,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1167,11 +1072,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1204,11 +1104,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1241,11 +1136,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1278,11 +1168,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1315,11 +1200,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1352,11 +1232,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1389,11 +1264,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1426,11 +1296,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1463,11 +1328,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1500,11 +1360,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1537,11 +1392,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1574,11 +1424,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1611,11 +1456,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1648,11 +1488,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1685,11 +1520,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1722,11 +1552,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1759,11 +1584,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1796,11 +1616,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1833,11 +1648,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1870,11 +1680,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1907,11 +1712,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1944,11 +1744,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1981,11 +1776,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2018,11 +1808,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2055,11 +1840,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2092,11 +1872,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2129,11 +1904,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2166,11 +1936,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2203,11 +1968,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2240,11 +2000,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2277,11 +2032,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2314,11 +2064,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2351,11 +2096,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2388,11 +2128,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2425,11 +2160,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2462,11 +2192,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2499,11 +2224,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2536,11 +2256,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2573,11 +2288,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2610,11 +2320,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2647,11 +2352,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2684,11 +2384,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2721,11 +2416,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2758,11 +2448,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2795,11 +2480,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2832,11 +2512,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2869,11 +2544,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2906,11 +2576,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2943,11 +2608,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2980,11 +2640,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3017,11 +2672,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3054,11 +2704,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3091,11 +2736,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3128,11 +2768,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3165,11 +2800,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3202,11 +2832,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3239,11 +2864,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3276,11 +2896,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3313,11 +2928,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3350,11 +2960,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3387,11 +2992,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3424,11 +3024,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3461,11 +3056,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3498,11 +3088,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3535,11 +3120,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3572,11 +3152,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3609,11 +3184,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3646,11 +3216,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3683,11 +3248,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3720,11 +3280,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3757,11 +3312,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3794,11 +3344,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3831,11 +3376,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3868,11 +3408,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3905,11 +3440,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3942,11 +3472,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3979,11 +3504,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4016,11 +3536,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4053,11 +3568,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4090,11 +3600,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4127,11 +3632,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4164,11 +3664,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4201,11 +3696,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4238,11 +3728,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4275,11 +3760,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4312,11 +3792,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4349,11 +3824,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4386,11 +3856,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4423,11 +3888,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4460,11 +3920,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4497,11 +3952,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4534,11 +3984,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4571,11 +4016,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4608,11 +4048,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4645,11 +4080,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4682,11 +4112,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4719,11 +4144,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4756,11 +4176,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4793,11 +4208,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4830,11 +4240,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4867,11 +4272,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4904,11 +4304,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4941,11 +4336,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4978,11 +4368,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5015,11 +4400,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5052,11 +4432,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5089,11 +4464,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5126,11 +4496,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5163,11 +4528,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5200,11 +4560,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5237,11 +4592,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5274,11 +4624,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5311,11 +4656,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5348,11 +4688,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5385,11 +4720,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5422,11 +4752,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5459,11 +4784,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5496,11 +4816,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5533,11 +4848,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5570,11 +4880,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5607,11 +4912,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5644,11 +4944,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5681,11 +4976,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5718,11 +5008,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5755,11 +5040,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5792,11 +5072,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5829,11 +5104,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5866,11 +5136,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5903,11 +5168,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5940,11 +5200,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5977,11 +5232,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6014,11 +5264,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6051,11 +5296,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6088,11 +5328,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6125,11 +5360,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6162,11 +5392,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6199,11 +5424,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6236,11 +5456,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6273,11 +5488,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6310,11 +5520,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6347,11 +5552,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6384,11 +5584,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6421,11 +5616,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6458,11 +5648,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6495,11 +5680,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -6532,11 +5712,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6569,11 +5744,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6606,11 +5776,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -6643,11 +5808,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -6680,11 +5840,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6717,11 +5872,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6754,11 +5904,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6791,11 +5936,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6828,11 +5968,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6865,11 +6000,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6902,11 +6032,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6939,11 +6064,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6976,11 +6096,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7013,11 +6128,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7050,11 +6160,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7087,11 +6192,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7124,11 +6224,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7161,11 +6256,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7198,11 +6288,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7235,11 +6320,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7272,11 +6352,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -7309,11 +6384,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7346,11 +6416,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7383,11 +6448,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -7420,11 +6480,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -7457,11 +6512,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -7494,11 +6544,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -7531,11 +6576,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -7568,11 +6608,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -7605,11 +6640,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -7642,11 +6672,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -7679,11 +6704,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -7716,11 +6736,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -7753,11 +6768,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -7790,11 +6800,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -7827,11 +6832,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -7864,11 +6864,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -7901,11 +6896,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -7938,11 +6928,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -7975,11 +6960,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8012,11 +6992,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8049,11 +7024,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -8086,11 +7056,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8123,11 +7088,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -8160,11 +7120,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -8197,11 +7152,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -8234,11 +7184,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -8271,11 +7216,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -8308,11 +7248,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8345,11 +7280,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -8382,11 +7312,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -8419,11 +7344,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -8456,11 +7376,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -8493,11 +7408,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -8530,11 +7440,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -8567,11 +7472,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -8604,11 +7504,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -8641,11 +7536,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -8678,11 +7568,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -8715,11 +7600,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -8752,11 +7632,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -8789,11 +7664,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -8826,11 +7696,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -8863,11 +7728,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -8900,11 +7760,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -8937,11 +7792,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -8974,11 +7824,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -9011,11 +7856,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -9048,11 +7888,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -9085,11 +7920,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -9122,11 +7952,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -9159,11 +7984,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -9196,11 +8016,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -9233,11 +8048,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -9270,11 +8080,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -9307,11 +8112,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -9344,11 +8144,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -9381,11 +8176,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -9418,11 +8208,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -9455,11 +8240,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -9492,11 +8272,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -9529,11 +8304,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -9566,11 +8336,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -9603,11 +8368,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -9640,11 +8400,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -9677,11 +8432,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -9714,11 +8464,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -9751,11 +8496,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -9788,11 +8528,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -9825,11 +8560,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -9862,11 +8592,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -9899,11 +8624,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -9936,11 +8656,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -9973,11 +8688,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -10010,11 +8720,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -10047,11 +8752,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -10084,11 +8784,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -10121,11 +8816,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -10158,11 +8848,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -10195,11 +8880,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -10232,11 +8912,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -10269,11 +8944,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -10306,11 +8976,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -10343,11 +9008,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -10380,11 +9040,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -10417,11 +9072,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G270" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -10454,11 +9104,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -10491,11 +9136,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -10528,11 +9168,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G273" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -10565,11 +9200,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G274" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -10602,11 +9232,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -10639,11 +9264,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G276" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -10676,11 +9296,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G277" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -10713,11 +9328,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -10750,11 +9360,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -10787,11 +9392,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -10824,11 +9424,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -10861,11 +9456,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -10898,11 +9488,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -10935,11 +9520,6 @@
           <t>PL</t>
         </is>
       </c>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -10970,11 +9550,6 @@
       <c r="F285" t="inlineStr">
         <is>
           <t>PL</t>
-        </is>
-      </c>
-      <c r="G285" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
         </is>
       </c>
     </row>

--- a/Download/ZCEV.xlsx
+++ b/Download/ZCEV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F285"/>
+  <dimension ref="A1:E286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,6 @@
           <t>ZONA_RESTR</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>AREA_PSA</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -491,11 +486,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -523,11 +513,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -555,11 +540,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -587,11 +567,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -619,11 +594,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -651,11 +621,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -683,11 +648,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -715,11 +675,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -747,11 +702,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -779,11 +729,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -811,11 +756,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -843,11 +783,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -875,11 +810,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -907,11 +837,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -939,11 +864,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -971,11 +891,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1003,11 +918,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1035,11 +945,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1067,11 +972,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1099,11 +999,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1131,11 +1026,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1163,11 +1053,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1195,11 +1080,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1227,11 +1107,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1259,11 +1134,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1291,11 +1161,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1323,11 +1188,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1355,11 +1215,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1387,11 +1242,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1419,11 +1269,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1451,11 +1296,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1483,11 +1323,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1515,11 +1350,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1547,11 +1377,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1579,11 +1404,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1611,11 +1431,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1643,11 +1458,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1675,11 +1485,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1707,11 +1512,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1739,11 +1539,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1771,11 +1566,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1803,11 +1593,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1835,11 +1620,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1867,11 +1647,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1899,11 +1674,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1931,11 +1701,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1963,11 +1728,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1995,11 +1755,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2027,11 +1782,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2059,11 +1809,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2091,11 +1836,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2123,11 +1863,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2155,11 +1890,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2187,11 +1917,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2219,11 +1944,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2251,11 +1971,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2283,11 +1998,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2315,11 +2025,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2347,11 +2052,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2379,11 +2079,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2411,11 +2106,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2443,11 +2133,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2475,11 +2160,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2507,11 +2187,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2539,11 +2214,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2571,11 +2241,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2603,11 +2268,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2635,11 +2295,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2667,11 +2322,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2699,11 +2349,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2731,11 +2376,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2763,11 +2403,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2795,11 +2430,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2827,11 +2457,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2859,11 +2484,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2891,11 +2511,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2923,11 +2538,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2955,11 +2565,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2987,11 +2592,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3019,11 +2619,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3051,11 +2646,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3083,11 +2673,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3115,11 +2700,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3147,11 +2727,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3179,11 +2754,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3211,11 +2781,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3243,11 +2808,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3275,11 +2835,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3307,11 +2862,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3339,11 +2889,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3371,11 +2916,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3403,11 +2943,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3435,11 +2970,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3467,11 +2997,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3499,11 +3024,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3531,11 +3051,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3563,11 +3078,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3595,11 +3105,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3627,11 +3132,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3659,11 +3159,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3691,11 +3186,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3723,11 +3213,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3755,11 +3240,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3787,11 +3267,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3819,11 +3294,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3851,11 +3321,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3883,11 +3348,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3915,11 +3375,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3947,11 +3402,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3979,11 +3429,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4011,11 +3456,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4043,11 +3483,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4075,11 +3510,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4107,11 +3537,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4139,11 +3564,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4171,11 +3591,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4203,11 +3618,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4235,11 +3645,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4267,11 +3672,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4299,11 +3699,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4331,11 +3726,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4363,11 +3753,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4395,11 +3780,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4427,11 +3807,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4459,11 +3834,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4491,11 +3861,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4523,11 +3888,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4555,11 +3915,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4587,11 +3942,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4619,11 +3969,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4651,11 +3996,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4683,11 +4023,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4715,11 +4050,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4747,11 +4077,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4779,11 +4104,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4811,11 +4131,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4843,11 +4158,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4875,11 +4185,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4907,11 +4212,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4939,11 +4239,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4971,11 +4266,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5003,11 +4293,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5035,11 +4320,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5067,11 +4347,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5099,11 +4374,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5131,11 +4401,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5163,11 +4428,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5195,11 +4455,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5227,11 +4482,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5259,11 +4509,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5291,11 +4536,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5323,11 +4563,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5355,11 +4590,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5387,11 +4617,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5419,11 +4644,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5451,11 +4671,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5483,11 +4698,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5515,11 +4725,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5547,11 +4752,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5579,11 +4779,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5611,11 +4806,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5643,11 +4833,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5675,11 +4860,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5707,11 +4887,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5739,11 +4914,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5771,11 +4941,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5803,11 +4968,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5835,11 +4995,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5867,11 +5022,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5899,11 +5049,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5931,11 +5076,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5963,11 +5103,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5995,11 +5130,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6027,11 +5157,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6059,11 +5184,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6091,11 +5211,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6123,11 +5238,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6155,11 +5265,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6187,11 +5292,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6219,11 +5319,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6251,11 +5346,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6283,11 +5373,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6315,11 +5400,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6347,11 +5427,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6379,11 +5454,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6411,11 +5481,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6443,11 +5508,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6475,11 +5535,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6507,11 +5562,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6539,11 +5589,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6571,11 +5616,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6603,11 +5643,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6635,11 +5670,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6667,11 +5697,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6699,11 +5724,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6731,11 +5751,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6763,11 +5778,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6795,11 +5805,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6827,11 +5832,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6859,11 +5859,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6891,11 +5886,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6923,11 +5913,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6955,11 +5940,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6987,11 +5967,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -7019,11 +5994,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -7051,11 +6021,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -7083,11 +6048,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -7115,11 +6075,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -7147,11 +6102,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -7179,11 +6129,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -7211,11 +6156,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -7243,11 +6183,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -7275,11 +6210,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -7307,11 +6237,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -7339,11 +6264,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -7371,11 +6291,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -7403,11 +6318,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -7435,11 +6345,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -7467,11 +6372,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -7499,11 +6399,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -7531,11 +6426,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -7563,11 +6453,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -7595,11 +6480,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -7627,11 +6507,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -7659,11 +6534,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7691,11 +6561,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -7723,11 +6588,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -7755,11 +6615,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -7787,11 +6642,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7819,11 +6669,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -7851,11 +6696,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -7883,11 +6723,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -7915,11 +6750,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -7947,11 +6777,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -7979,11 +6804,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -8011,11 +6831,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -8043,11 +6858,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -8075,11 +6885,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -8107,11 +6912,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -8139,11 +6939,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -8171,11 +6966,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -8203,11 +6993,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -8235,11 +7020,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -8267,11 +7047,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -8299,11 +7074,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -8331,11 +7101,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -8363,11 +7128,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -8395,11 +7155,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -8427,11 +7182,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -8459,11 +7209,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -8491,11 +7236,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -8523,11 +7263,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -8555,11 +7290,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -8587,11 +7317,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -8619,11 +7344,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -8651,11 +7371,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -8683,11 +7398,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -8715,11 +7425,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -8747,11 +7452,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -8779,11 +7479,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -8811,11 +7506,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -8843,11 +7533,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -8875,11 +7560,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -8907,11 +7587,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -8939,11 +7614,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -8971,11 +7641,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -9003,11 +7668,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -9035,11 +7695,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -9067,11 +7722,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -9099,11 +7749,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -9131,11 +7776,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -9163,11 +7803,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -9195,11 +7830,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -9227,11 +7857,6 @@
           <t>III</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -9259,11 +7884,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -9291,11 +7911,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -9323,11 +7938,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -9355,11 +7965,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -9387,11 +7992,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -9419,11 +8019,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -9451,11 +8046,6 @@
           <t>II</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -9483,11 +8073,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -9515,11 +8100,6 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>PL</t>
-        </is>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -9547,9 +8127,31 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>PL</t>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>PIEMONTE</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>MOTTA DE' CONTI</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>II</t>
         </is>
       </c>
     </row>
